--- a/Analyzed/try6/data_2012.xlsx
+++ b/Analyzed/try6/data_2012.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,6 +503,11 @@
           <t>CZcomb</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>XZcomb</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -547,13 +552,13 @@
         <v>58.99502841987441</v>
       </c>
       <c r="N2">
-        <v>319.3120000000001</v>
+        <v>638.6240000000001</v>
       </c>
       <c r="O2">
-        <v>1022.14</v>
+        <v>-77.86</v>
       </c>
       <c r="P2">
-        <v>476.1985896</v>
+        <v>377.1503935905807</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -574,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>2</v>
@@ -592,6 +597,9 @@
         <v>0</v>
       </c>
       <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
         <v>0</v>
       </c>
     </row>
@@ -638,13 +646,13 @@
         <v>73.37976601094493</v>
       </c>
       <c r="N3">
-        <v>262.78</v>
+        <v>582.2320000000001</v>
       </c>
       <c r="O3">
-        <v>1177.15</v>
+        <v>-122.85</v>
       </c>
       <c r="P3">
-        <v>389.4340032</v>
+        <v>286.8411571233306</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -665,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X3">
         <v>6</v>
@@ -684,6 +692,9 @@
       </c>
       <c r="AC3">
         <v>6</v>
+      </c>
+      <c r="AD3">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -729,13 +740,13 @@
         <v>67.10534743044455</v>
       </c>
       <c r="N4">
-        <v>194.152</v>
+        <v>517.1600000000001</v>
       </c>
       <c r="O4">
-        <v>993.9299999999999</v>
+        <v>-106.07</v>
       </c>
       <c r="P4">
-        <v>506.2309056</v>
+        <v>423.6070572202651</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -753,27 +764,30 @@
         <v>3</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>2</v>
       </c>
       <c r="Y4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
         <v>1</v>
       </c>
     </row>
@@ -820,13 +834,13 @@
         <v>59.69390492535633</v>
       </c>
       <c r="N5">
-        <v>221.732</v>
+        <v>504.336</v>
       </c>
       <c r="O5">
-        <v>962.99</v>
+        <v>-137.01</v>
       </c>
       <c r="P5">
-        <v>504.2268792</v>
+        <v>420.0709857155991</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -844,10 +858,10 @@
         <v>3</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>2</v>
@@ -862,10 +876,13 @@
         <v>2</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -911,13 +928,13 @@
         <v>67.25398952352792</v>
       </c>
       <c r="N6">
-        <v>173.992</v>
+        <v>514.864</v>
       </c>
       <c r="O6">
-        <v>1194.69</v>
+        <v>-155.31</v>
       </c>
       <c r="P6">
-        <v>469.549116</v>
+        <v>377.0395013431236</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -938,25 +955,28 @@
         <v>1</v>
       </c>
       <c r="W6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <v>1</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA6">
         <v>1</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC6">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1002,13 +1022,13 @@
         <v>69.99021226862881</v>
       </c>
       <c r="N7">
-        <v>226.156</v>
+        <v>452.3120000000001</v>
       </c>
       <c r="O7">
-        <v>916.73</v>
+        <v>-83.27</v>
       </c>
       <c r="P7">
-        <v>467.1546048</v>
+        <v>375.7037282183125</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -1026,27 +1046,30 @@
         <v>2</v>
       </c>
       <c r="V7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>3</v>
       </c>
       <c r="AB7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
         <v>1</v>
       </c>
     </row>
@@ -1093,13 +1116,13 @@
         <v>77.29459687131381</v>
       </c>
       <c r="N8">
-        <v>54.57200000000002</v>
+        <v>482.4400000000001</v>
       </c>
       <c r="O8">
-        <v>1089.27</v>
+        <v>-160.73</v>
       </c>
       <c r="P8">
-        <v>456.8588999999999</v>
+        <v>363.1190382933813</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -1117,10 +1140,10 @@
         <v>6</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1129,15 +1152,18 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
         <v>1</v>
       </c>
     </row>
@@ -1184,13 +1210,13 @@
         <v>70.76821724115386</v>
       </c>
       <c r="N9">
-        <v>-13.496</v>
+        <v>380.464</v>
       </c>
       <c r="O9">
-        <v>1017.24</v>
+        <v>-182.76</v>
       </c>
       <c r="P9">
-        <v>469.0601568</v>
+        <v>366.7645871425473</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -1211,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1223,13 +1249,16 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB9">
         <v>0</v>
       </c>
       <c r="AC9">
         <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
